--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_9_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_9_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.22000000000035</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.106213867873578e-08</v>
+        <v>0.000884657415986756</v>
       </c>
       <c r="I2" t="n">
-        <v>6.106213867873578e-08</v>
+        <v>0.000884657415986756</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>70.91784120715535</v>
+        <v>42.78368000611282</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[47.28909503735079, 94.5465873769599]</t>
+          <t>[15.001040227337327, 70.56631978488831]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.677105070958419e-07</v>
+        <v>0.003318736916741116</v>
       </c>
       <c r="O2" t="n">
-        <v>2.677105070958419e-07</v>
+        <v>0.003318736916741116</v>
       </c>
       <c r="P2" t="n">
-        <v>1.478026573760964</v>
+        <v>1.968605606753965</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 1.8805529598065034]</t>
+          <t>[1.2641844311742716, 2.6730267823336575]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.649785724173626e-09</v>
+        <v>1.107176490044992e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>2.649785724173626e-09</v>
+        <v>1.107176490044992e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>70.79028243678405</v>
+        <v>62.56156397856243</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[56.34613539560739, 85.23442947796072]</t>
+          <t>[47.325800477578255, 77.79732747954661]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.7982065249671e-13</v>
+        <v>1.397588711427034e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>7.7982065249671e-13</v>
+        <v>1.397588711427034e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>18.52260260260287</v>
+        <v>17.06416416416447</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.97097097097121</v>
+        <v>14.27817817817844</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.07423423423452</v>
+        <v>19.8501501501505</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.22000000000035</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001819829040786258</v>
+        <v>0.02663817990316186</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001819829040786258</v>
+        <v>0.02663817990316186</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>39.5598714308147</v>
+        <v>35.29946307965034</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[12.032553550211162, 67.08718931141823]</t>
+          <t>[2.429359282759137, 68.16956687654155]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.005838333235431037</v>
+        <v>0.03589508871728508</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005838333235431037</v>
+        <v>0.03589508871728508</v>
       </c>
       <c r="P3" t="n">
-        <v>1.050342288587578</v>
+        <v>1.880552959806503</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.3459211130078854, 1.7547634641672714]</t>
+          <t>[0.5471843060306547, 3.213921613582352]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.004351711620602883</v>
+        <v>0.006739083232343956</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004351711620602883</v>
+        <v>0.006739083232343956</v>
       </c>
       <c r="T3" t="n">
-        <v>62.9786981048401</v>
+        <v>62.73631481755064</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.198517312052196, 77.758878897628]</t>
+          <t>[44.51036926496292, 80.96226037013835]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.977174228315562e-11</v>
+        <v>1.281749950621247e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>4.977174228315562e-11</v>
+        <v>1.281749950621247e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>20.1712112112115</v>
+        <v>17.41241241241272</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.45585585585611</v>
+        <v>12.13893893893915</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.88656656656689</v>
+        <v>22.68588588588629</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.22000000000035</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005772247667168773</v>
+        <v>0.001856336920416757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005772247667168773</v>
+        <v>0.001856336920416757</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40.94853391918385</v>
+        <v>38.05220351067722</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[11.280767904839209, 70.6162999335285]</t>
+          <t>[14.44073803188801, 61.66366898946642]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.007908463197887627</v>
+        <v>0.002213030275489247</v>
       </c>
       <c r="O4" t="n">
-        <v>0.007908463197887627</v>
+        <v>0.002213030275489247</v>
       </c>
       <c r="P4" t="n">
-        <v>1.46544762419704</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5220264069028069, 2.408868841491273]</t>
+          <t>[0.6478159025420398, 2.383710942363426]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.003078867551427944</v>
+        <v>0.00100849462680519</v>
       </c>
       <c r="S4" t="n">
-        <v>0.003078867551427944</v>
+        <v>0.00100849462680519</v>
       </c>
       <c r="T4" t="n">
-        <v>61.61618611733788</v>
+        <v>53.12829086512483</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.41189208364344, 78.82048015103231]</t>
+          <t>[38.672152689127614, 67.58442904112205]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.922214635882938e-09</v>
+        <v>2.591338699176049e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>4.922214635882938e-09</v>
+        <v>2.591338699176049e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>18.57109109109136</v>
+        <v>18.85515515515549</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.93445445445467</v>
+        <v>15.4224224224227</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.20772772772805</v>
+        <v>22.28788788788829</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.22000000000035</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008236224538916703</v>
+        <v>1.20003863512963e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008236224538916703</v>
+        <v>1.20003863512963e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>42.58070936574986</v>
+        <v>66.00121532481074</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[17.151546370932465, 68.00987236056726]</t>
+          <t>[44.09501065586208, 87.9074199937594]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001539381724399602</v>
+        <v>2.472151554577806e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001539381724399602</v>
+        <v>2.472151554577806e-07</v>
       </c>
       <c r="P5" t="n">
-        <v>1.46544762419704</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.7107106503616532, 2.220184598032427]</t>
+          <t>[1.1635528346628865, 1.9434477076261176]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0003075998797348323</v>
+        <v>3.181550578545966e-10</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0003075998797348323</v>
+        <v>3.181550578545966e-10</v>
       </c>
       <c r="T5" t="n">
-        <v>52.51514381914625</v>
+        <v>67.00852154405884</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[37.61376959204567, 67.41651804624682]</t>
+          <t>[52.97506142619477, 81.0419816619229]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.291876213955106e-09</v>
+        <v>1.74105174721717e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>7.291876213955106e-09</v>
+        <v>1.74105174721717e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>18.57109109109136</v>
+        <v>18.70590590590624</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.66178178178201</v>
+        <v>17.16366366366398</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.48040040040072</v>
+        <v>20.24814814814851</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.22000000000035</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001208574328878109</v>
+        <v>2.056946801476389e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001208574328878109</v>
+        <v>2.056946801476389e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>45.59109976080981</v>
+        <v>56.73026279202769</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[19.110909150855832, 72.07129037076379]</t>
+          <t>[27.031313727215547, 86.42921185683983]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001167088209128364</v>
+        <v>0.0003738253742899822</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001167088209128364</v>
+        <v>0.0003738253742899822</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6603948521059619</v>
+        <v>0.9119738433844251</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.09434212172942225, 1.2264475824825016]</t>
+          <t>[0.42139481039142357, 1.4025528763774266]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.02323088532976758</v>
+        <v>0.0005118688946175176</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02323088532976758</v>
+        <v>0.0005118688946175176</v>
       </c>
       <c r="T6" t="n">
-        <v>55.4142379728405</v>
+        <v>68.97972579756085</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.658307976934765, 69.17016796874623]</t>
+          <t>[53.659101970674925, 84.30034962444677]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.357136708042162e-10</v>
+        <v>1.014965889112318e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>2.357136708042162e-10</v>
+        <v>1.014965889112318e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>21.67435435435467</v>
+        <v>21.24314314314352</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.49237237237265</v>
+        <v>19.30290290290324</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.85633633633668</v>
+        <v>23.1833833833838</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.22000000000035</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001489933701289692</v>
+        <v>0.05045193481900068</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001489933701289692</v>
+        <v>0.05045193481900068</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>46.59941530966606</v>
+        <v>29.4048473712901</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[22.737716630925746, 70.46111398840637]</t>
+          <t>[-2.453067521628242, 61.26276226420845]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0002868502949076035</v>
+        <v>0.06957142502199609</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0002868502949076035</v>
+        <v>0.06957142502199609</v>
       </c>
       <c r="P7" t="n">
-        <v>1.402552876377425</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.7610264486173479, 2.044079304137502]</t>
+          <t>[-0.7232895999255788, 2.7988162779728896]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.502542363251429e-05</v>
+        <v>0.2415021067940069</v>
       </c>
       <c r="S7" t="n">
-        <v>6.502542363251429e-05</v>
+        <v>0.2415021067940069</v>
       </c>
       <c r="T7" t="n">
-        <v>62.85884494085378</v>
+        <v>56.31525247702592</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.51624322393433, 77.20144665777323]</t>
+          <t>[39.68783827720893, 72.94266667684292]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.226463458043781e-11</v>
+        <v>1.875075028578976e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>2.226463458043781e-11</v>
+        <v>1.875075028578976e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>18.8135335335338</v>
+        <v>20.74564564564602</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.34062062062086</v>
+        <v>13.78068068068093</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.28644644644675</v>
+        <v>27.71061061061111</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.62000000000025</v>
+        <v>24.11000000000033</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00168858291638152</v>
+        <v>0.01840909328525253</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00168858291638152</v>
+        <v>0.01840909328525253</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>39.07905521226629</v>
+        <v>32.30584706696716</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[12.551414756909722, 65.60669566762286]</t>
+          <t>[4.174101183945339, 60.43759294998898]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.004801043990811271</v>
+        <v>0.02535367450428017</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004801043990811271</v>
+        <v>0.02535367450428017</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9371317425122712</v>
+        <v>1.176131784226809</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 1.603816069400196]</t>
+          <t>[0.05660527303765228, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.006910816896345207</v>
+        <v>0.03991616541364729</v>
       </c>
       <c r="S8" t="n">
-        <v>0.006910816896345207</v>
+        <v>0.03991616541364729</v>
       </c>
       <c r="T8" t="n">
-        <v>57.43871716493054</v>
+        <v>59.85920896249031</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.98325556586353, 71.89417876399754]</t>
+          <t>[44.28047582952544, 75.43794209545518]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.412228277710483e-10</v>
+        <v>8.290672592892179e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>3.412228277710483e-10</v>
+        <v>8.290672592892179e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>20.09709709709731</v>
+        <v>19.59691691691719</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.59087087087105</v>
+        <v>15.30104104104125</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.60332332332357</v>
+        <v>23.89279279279312</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.62000000000025</v>
+        <v>24.11000000000033</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.486736807671974e-05</v>
+        <v>0.0001122090766284556</v>
       </c>
       <c r="I9" t="n">
-        <v>2.486736807671974e-05</v>
+        <v>0.0001122090766284556</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>57.21608652585455</v>
+        <v>54.66402896861776</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[26.45503523145237, 87.97713782025673]</t>
+          <t>[23.276766172377933, 86.05129176485758]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0005086207425597511</v>
+        <v>0.001037502899803311</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0005086207425597511</v>
+        <v>0.001037502899803311</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6603948521059619</v>
+        <v>0.9748685912040393</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.1698158191129604, 1.1509738850989635]</t>
+          <t>[0.40881586082750054, 1.5409213215805782]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.009455502149745554</v>
+        <v>0.001163537437558926</v>
       </c>
       <c r="S9" t="n">
-        <v>0.009455502149745554</v>
+        <v>0.001163537437558926</v>
       </c>
       <c r="T9" t="n">
-        <v>53.15141309807645</v>
+        <v>71.90740765503583</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[37.468261046768106, 68.83456514938479]</t>
+          <t>[55.46860330989432, 88.34621200017733]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.847058572757021e-08</v>
+        <v>2.353472972060899e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.847058572757021e-08</v>
+        <v>2.353472972060899e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>21.13741741741764</v>
+        <v>20.36920920920949</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.29321321321342</v>
+        <v>18.19713713713739</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.98162162162187</v>
+        <v>22.54128128128159</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.62000000000025</v>
+        <v>24.11000000000033</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001986461659393646</v>
+        <v>3.216206428535706e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001986461659393646</v>
+        <v>3.216206428535706e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>46.53756621585141</v>
+        <v>51.22205935383251</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[12.436298817008186, 80.63883361469465]</t>
+          <t>[24.392532852049257, 78.05158585561576]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.008582675773608717</v>
+        <v>0.0003761626405514029</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008582675773608717</v>
+        <v>0.0003761626405514029</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7861843477451931</v>
+        <v>0.6352369529781168</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.14465791998511524, 1.427710775505271]</t>
+          <t>[0.10692107129334794, 1.1635528346628856]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.01744268775191493</v>
+        <v>0.01953991407723343</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01744268775191493</v>
+        <v>0.01953991407723343</v>
       </c>
       <c r="T10" t="n">
-        <v>50.94769701011089</v>
+        <v>64.20008474615449</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[33.44180473494423, 68.45358928527756]</t>
+          <t>[49.98474089530744, 78.41542859700154]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.007765153663968e-07</v>
+        <v>9.272360657064382e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>5.007765153663968e-07</v>
+        <v>9.272360657064382e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>20.66454454454477</v>
+        <v>21.67245245245275</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.25289289289309</v>
+        <v>19.64518518518545</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.07619619619645</v>
+        <v>23.69971971972004</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.62000000000025</v>
+        <v>24.11000000000033</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0006263742910121994</v>
+        <v>0.001046857411584501</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0006263742910121994</v>
+        <v>0.001046857411584501</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>40.44846437796157</v>
+        <v>44.76946767811643</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[15.289024842812566, 65.60790391311058]</t>
+          <t>[15.21033180659579, 74.32860354963708]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.002263080381077254</v>
+        <v>0.003822163665074152</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002263080381077254</v>
+        <v>0.003822163665074152</v>
       </c>
       <c r="P11" t="n">
-        <v>1.10065808684327</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.4339737599553466, 1.7673424137311944]</t>
+          <t>[0.3836579616996545, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.001764801072103861</v>
+        <v>0.002717772177496469</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001764801072103861</v>
+        <v>0.002717772177496469</v>
       </c>
       <c r="T11" t="n">
-        <v>63.82811002180486</v>
+        <v>60.36549219170555</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[50.10078475255574, 77.55543529105398]</t>
+          <t>[44.449164274876196, 76.2818201085349]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.896660771829374e-12</v>
+        <v>1.162248963737511e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>3.896660771829374e-12</v>
+        <v>1.162248963737511e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>19.48236236236257</v>
+        <v>20.07959959959987</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.97613613613632</v>
+        <v>17.52138138138162</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.98858858858883</v>
+        <v>22.63781781781812</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.62000000000025</v>
+        <v>24.11000000000033</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.427068581667413e-07</v>
+        <v>6.863678638779902e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>2.427068581667413e-07</v>
+        <v>6.863678638779902e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>64.95774322944156</v>
+        <v>62.63015442334315</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[38.680841098700625, 91.2346453601825]</t>
+          <t>[34.586499936521676, 90.67380891016462]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>9.86640849154341e-06</v>
+        <v>4.789168175012293e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>9.86640849154341e-06</v>
+        <v>4.789168175012293e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.088079137279347</v>
+        <v>0.8616580451287312</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.672973801669885, 1.50318447288881]</t>
+          <t>[0.44655270951926873, 1.2767633807381937]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.609354970901535e-06</v>
+        <v>0.0001322894198982905</v>
       </c>
       <c r="S12" t="n">
-        <v>3.609354970901535e-06</v>
+        <v>0.0001322894198982905</v>
       </c>
       <c r="T12" t="n">
-        <v>73.21928050508888</v>
+        <v>76.43184357108227</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[59.27441743355223, 87.16414357662552]</t>
+          <t>[62.26308441928472, 90.60060272287981]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.770761894538737e-14</v>
+        <v>3.641531520770513e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>8.770761894538737e-14</v>
+        <v>3.641531520770513e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>19.52964964964986</v>
+        <v>20.80362362362391</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.96916916916936</v>
+        <v>19.21077077077104</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.09013013013036</v>
+        <v>22.39647647647679</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_9_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_9_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.85000000000045</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000884657415986756</v>
+        <v>0.0003644385934928884</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000884657415986756</v>
+        <v>0.0003644385934928884</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>42.78368000611282</v>
+        <v>46.86340875062204</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[15.001040227337327, 70.56631978488831]</t>
+          <t>[19.62040648561745, 74.10641101562663]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.003318736916741116</v>
+        <v>0.001177503831037985</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003318736916741116</v>
+        <v>0.001177503831037985</v>
       </c>
       <c r="P2" t="n">
-        <v>1.968605606753965</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 2.6730267823336575]</t>
+          <t>[0.6352369529781168, 1.9686056067539646]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.107176490044992e-06</v>
+        <v>0.000286967815912087</v>
       </c>
       <c r="S2" t="n">
-        <v>1.107176490044992e-06</v>
+        <v>0.000286967815912087</v>
       </c>
       <c r="T2" t="n">
-        <v>62.56156397856243</v>
+        <v>56.1339009138237</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.325800477578255, 77.79732747954661]</t>
+          <t>[40.73764452000477, 71.53015730764264]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.397588711427034e-10</v>
+        <v>3.164069894978638e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>1.397588711427034e-10</v>
+        <v>3.164069894978638e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>17.06416416416447</v>
+        <v>19.28864864864894</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.27817817817844</v>
+        <v>16.70708708708734</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8501501501505</v>
+        <v>21.87021021021054</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.85000000000045</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02663817990316186</v>
+        <v>0.0004660320286071773</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02663817990316186</v>
+        <v>0.0004660320286071773</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>35.29946307965034</v>
+        <v>42.43158986476335</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[2.429359282759137, 68.16956687654155]</t>
+          <t>[18.35519441669912, 66.50798531282757]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.03589508871728508</v>
+        <v>0.0009169141855813745</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03589508871728508</v>
+        <v>0.0009169141855813745</v>
       </c>
       <c r="P3" t="n">
-        <v>1.880552959806503</v>
+        <v>1.717026615475503</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5471843060306547, 3.213921613582352]</t>
+          <t>[1.0377633390236563, 2.39628989192735]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.006739083232343956</v>
+        <v>6.785697488131959e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.006739083232343956</v>
+        <v>6.785697488131959e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>62.73631481755064</v>
+        <v>53.51841754464192</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.51036926496292, 80.96226037013835]</t>
+          <t>[39.285850099894844, 67.750984989389]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.281749950621247e-08</v>
+        <v>1.449181441515179e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>1.281749950621247e-08</v>
+        <v>1.449181441515179e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>17.41241241241272</v>
+        <v>17.68126126126153</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.13893893893915</v>
+        <v>15.05099099099122</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.68588588588629</v>
+        <v>20.31153153153183</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.85000000000045</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001856336920416757</v>
+        <v>6.243933920113687e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001856336920416757</v>
+        <v>6.243933920113687e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>38.05220351067722</v>
+        <v>54.63672205201129</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[14.44073803188801, 61.66366898946642]</t>
+          <t>[30.017474672445374, 79.25596943157721]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.002213030275489247</v>
+        <v>5.248089578335779e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002213030275489247</v>
+        <v>5.248089578335779e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.515763422452733</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.6478159025420398, 2.383710942363426]</t>
+          <t>[0.9748685912040411, 2.157289850212811]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.00100849462680519</v>
+        <v>2.990417665493794e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00100849462680519</v>
+        <v>2.990417665493794e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>53.12829086512483</v>
+        <v>63.54319534058862</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[38.672152689127614, 67.58442904112205]</t>
+          <t>[47.63621528535555, 79.45017539582169]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.591338699176049e-09</v>
+        <v>2.958036038336331e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>2.591338699176049e-09</v>
+        <v>2.958036038336331e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>18.85515515515549</v>
+        <v>18.26576576576604</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.4224224224227</v>
+        <v>15.9764564564567</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.28788788788829</v>
+        <v>20.55507507507538</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.85000000000045</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.20003863512963e-07</v>
+        <v>0.001104536499772268</v>
       </c>
       <c r="I5" t="n">
-        <v>1.20003863512963e-07</v>
+        <v>0.001104536499772268</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>66.00121532481074</v>
+        <v>45.79115441152769</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[44.09501065586208, 87.9074199937594]</t>
+          <t>[15.715704142480831, 75.86660468057454]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.472151554577806e-07</v>
+        <v>0.00365676710956353</v>
       </c>
       <c r="O5" t="n">
-        <v>2.472151554577806e-07</v>
+        <v>0.00365676710956353</v>
       </c>
       <c r="P5" t="n">
-        <v>1.553500271144502</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.1635528346628865, 1.9434477076261176]</t>
+          <t>[0.4465527095192714, 1.8050792624229635]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.181550578545966e-10</v>
+        <v>0.001699958817283687</v>
       </c>
       <c r="S5" t="n">
-        <v>3.181550578545966e-10</v>
+        <v>0.001699958817283687</v>
       </c>
       <c r="T5" t="n">
-        <v>67.00852154405884</v>
+        <v>63.51712625249949</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[52.97506142619477, 81.0419816619229]</t>
+          <t>[47.11000854466788, 79.92424396033111]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.74105174721717e-12</v>
+        <v>6.811899933012455e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>1.74105174721717e-12</v>
+        <v>6.811899933012455e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>18.70590590590624</v>
+        <v>19.97057057057087</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.16366366366398</v>
+        <v>17.34030030030056</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.24814814814851</v>
+        <v>22.60084084084117</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.85000000000045</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.056946801476389e-05</v>
+        <v>3.376385522280145e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>2.056946801476389e-05</v>
+        <v>3.376385522280145e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>56.73026279202769</v>
+        <v>67.05952366022069</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[27.031313727215547, 86.42921185683983]</t>
+          <t>[37.66548363100176, 96.45356368943962]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0003738253742899822</v>
+        <v>3.496107608724763e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0003738253742899822</v>
+        <v>3.496107608724763e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9119738433844251</v>
+        <v>1.251605481610349</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 1.4025528763774266]</t>
+          <t>[0.748447499053424, 1.7547634641672731]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0005118688946175176</v>
+        <v>8.895334933090027e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0005118688946175176</v>
+        <v>8.895334933090027e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>68.97972579756085</v>
+        <v>71.12844821956887</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[53.659101970674925, 84.30034962444677]</t>
+          <t>[54.61963208751855, 87.63726435161918]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.014965889112318e-11</v>
+        <v>3.633005007941392e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.014965889112318e-11</v>
+        <v>3.633005007941392e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>21.24314314314352</v>
+        <v>19.48348348348377</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.30290290290324</v>
+        <v>17.53513513513539</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.1833833833838</v>
+        <v>21.43183183183215</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.85000000000045</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05045193481900068</v>
+        <v>4.134502700536835e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05045193481900068</v>
+        <v>4.134502700536835e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>29.4048473712901</v>
+        <v>58.55681643232834</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.453067521628242, 61.26276226420845]</t>
+          <t>[30.966048962594442, 86.14758390206224]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.06957142502199609</v>
+        <v>9.821784278041257e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06957142502199609</v>
+        <v>9.821784278041257e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>1.037763339023655</v>
+        <v>1.000026490331886</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.7232895999255788, 2.7988162779728896]</t>
+          <t>[0.5220264069028087, 1.478026573760964]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.2415021067940069</v>
+        <v>0.0001191909068480879</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2415021067940069</v>
+        <v>0.0001191909068480879</v>
       </c>
       <c r="T7" t="n">
-        <v>56.31525247702592</v>
+        <v>65.41899694968019</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[39.68783827720893, 72.94266667684292]</t>
+          <t>[50.893048613187915, 79.94494528617247]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.875075028578976e-08</v>
+        <v>1.007127714558465e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.875075028578976e-08</v>
+        <v>1.007127714558465e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>20.74564564564602</v>
+        <v>20.45765765765796</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.78068068068093</v>
+        <v>18.606726726727</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.71061061061111</v>
+        <v>22.30858858858892</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.11000000000033</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01840909328525253</v>
+        <v>9.421976121104514e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01840909328525253</v>
+        <v>9.421976121104514e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>32.30584706696716</v>
+        <v>47.61517996296755</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[4.174101183945339, 60.43759294998898]</t>
+          <t>[20.46909068681363, 74.76126923912148]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.02535367450428017</v>
+        <v>0.0009636113593614049</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02535367450428017</v>
+        <v>0.0009636113593614049</v>
       </c>
       <c r="P8" t="n">
-        <v>1.176131784226809</v>
+        <v>0.9748685912040402</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.05660527303765228, 2.295658295415965]</t>
+          <t>[0.40881586082749966, 1.5409213215805808]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.03991616541364729</v>
+        <v>0.001163537437559148</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03991616541364729</v>
+        <v>0.001163537437559148</v>
       </c>
       <c r="T8" t="n">
-        <v>59.85920896249031</v>
+        <v>53.2837476716229</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.28047582952544, 75.43794209545518]</t>
+          <t>[39.17698033756638, 67.39051500567942]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>8.290672592892179e-10</v>
+        <v>1.291602824693427e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>8.290672592892179e-10</v>
+        <v>1.291602824693427e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>19.59691691691719</v>
+        <v>19.8960960960963</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.30104104104125</v>
+        <v>17.77447447447465</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.89279279279312</v>
+        <v>22.01771771771795</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.11000000000033</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001122090766284556</v>
+        <v>4.718067669884363e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001122090766284556</v>
+        <v>4.718067669884363e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>54.66402896861776</v>
+        <v>64.14124506237965</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[23.276766172377933, 86.05129176485758]</t>
+          <t>[39.764817132052244, 88.51767299270706]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001037502899803311</v>
+        <v>3.371117332617857e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001037502899803311</v>
+        <v>3.371117332617857e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9748685912040393</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.40881586082750054, 1.5409213215805782]</t>
+          <t>[0.2956053147521933, 1.0755001877154244]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.001163537437558926</v>
+        <v>0.0009407656048108226</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001163537437558926</v>
+        <v>0.0009407656048108226</v>
       </c>
       <c r="T9" t="n">
-        <v>71.90740765503583</v>
+        <v>61.62456082935931</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[55.46860330989432, 88.34621200017733]</t>
+          <t>[48.711074244452874, 74.53804741426575]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.353472972060899e-11</v>
+        <v>1.772582081116525e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.353472972060899e-11</v>
+        <v>1.772582081116525e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>20.36920920920949</v>
+        <v>20.9804804804807</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.19713713713739</v>
+        <v>19.51891891891912</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.54128128128159</v>
+        <v>22.44204204204227</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.11000000000033</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.216206428535706e-05</v>
+        <v>0.0006046193214171991</v>
       </c>
       <c r="I10" t="n">
-        <v>3.216206428535706e-05</v>
+        <v>0.0006046193214171991</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>51.22205935383251</v>
+        <v>45.44422554276807</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[24.392532852049257, 78.05158585561576]</t>
+          <t>[15.389049785805696, 75.49940129973044]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0003761626405514029</v>
+        <v>0.003876472326612923</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0003761626405514029</v>
+        <v>0.003876472326612923</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6352369529781168</v>
+        <v>0.8868159442565782</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.10692107129334794, 1.1635528346628856]</t>
+          <t>[0.2830263651882694, 1.490605523324887]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.01953991407723343</v>
+        <v>0.004917638476922725</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01953991407723343</v>
+        <v>0.004917638476922725</v>
       </c>
       <c r="T10" t="n">
-        <v>64.20008474615449</v>
+        <v>59.08361544402609</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.98474089530744, 78.41542859700154]</t>
+          <t>[43.67943682804416, 74.48779406000801]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.272360657064382e-12</v>
+        <v>8.683107566298531e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>9.272360657064382e-12</v>
+        <v>8.683107566298531e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>21.67245245245275</v>
+        <v>20.22612612612633</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.64518518518545</v>
+        <v>17.96306306306325</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.69971971972004</v>
+        <v>22.48918918918942</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.11000000000033</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001046857411584501</v>
+        <v>3.070313895359167e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001046857411584501</v>
+        <v>3.070313895359167e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>44.76946767811643</v>
+        <v>56.68404893581886</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[15.21033180659579, 74.32860354963708]</t>
+          <t>[26.499291873770154, 86.86880599786758]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.003822163665074152</v>
+        <v>0.000455910361062184</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003822163665074152</v>
+        <v>0.000455910361062184</v>
       </c>
       <c r="P11" t="n">
-        <v>1.050342288587578</v>
+        <v>0.9622896416401163</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.3836579616996545, 1.7170266154755023]</t>
+          <t>[0.45913165908319264, 1.46544762419704]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.002717772177496469</v>
+        <v>0.0003685036612430803</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002717772177496469</v>
+        <v>0.0003685036612430803</v>
       </c>
       <c r="T11" t="n">
-        <v>60.36549219170555</v>
+        <v>57.44927609168096</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.449164274876196, 76.2818201085349]</t>
+          <t>[41.81227983654651, 73.0862723468154]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.162248963737511e-09</v>
+        <v>2.612761562659216e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.162248963737511e-09</v>
+        <v>2.612761562659216e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>20.07959959959987</v>
+        <v>19.94324324324345</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.52138138138162</v>
+        <v>18.05735735735755</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.63781781781812</v>
+        <v>21.82912912912936</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.11000000000033</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>6.863678638779902e-07</v>
+        <v>0.001272926547158604</v>
       </c>
       <c r="I12" t="n">
-        <v>6.863678638779902e-07</v>
+        <v>0.001272926547158604</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>62.63015442334315</v>
+        <v>44.24038087357238</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[34.586499936521676, 90.67380891016462]</t>
+          <t>[17.42787240919651, 71.05288933794826]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.789168175012293e-05</v>
+        <v>0.001774557568401613</v>
       </c>
       <c r="O12" t="n">
-        <v>4.789168175012293e-05</v>
+        <v>0.001774557568401613</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8616580451287312</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.44655270951926873, 1.2767633807381937]</t>
+          <t>[0.735868549489501, 2.270500396288119]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0001322894198982905</v>
+        <v>0.0002761181778887511</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0001322894198982905</v>
+        <v>0.0002761181778887511</v>
       </c>
       <c r="T12" t="n">
-        <v>76.43184357108227</v>
+        <v>64.28965189673599</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[62.26308441928472, 90.60060272287981]</t>
+          <t>[48.439112215253616, 80.14019157821836]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.641531520770513e-14</v>
+        <v>1.957847217681774e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>3.641531520770513e-14</v>
+        <v>1.957847217681774e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>20.80362362362391</v>
+        <v>17.9159159159161</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.21077077077104</v>
+        <v>15.03993993994009</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.39647647647679</v>
+        <v>20.79189189189211</v>
       </c>
     </row>
   </sheetData>
